--- a/data/ern_ithaca_expert_centers.xlsx
+++ b/data/ern_ithaca_expert_centers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/molgenis-data-erns/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{994C8CFF-09E3-314B-B2C2-56EA020DACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C837D7-0231-FE4C-B8CA-739AF04F3284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6860" windowWidth="38400" windowHeight="21100"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ern_ithaca_expert_centers" sheetId="1" r:id="rId1"/>
+    <sheet name="ernstats_dataproviders" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="522">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="546">
   <si>
     <t>displayName</t>
   </si>
@@ -31,24 +28,12 @@
     <t>country</t>
   </si>
   <si>
-    <t>representative</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>hasSubmittedData</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Dr Mette M√∏ller Handrup</t>
-  </si>
-  <si>
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-aarhus-center/</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-montpellier-center/</t>
   </si>
   <si>
-    <t>Paris Center (Robert Debr√© University Hospital)</t>
-  </si>
-  <si>
     <t>Pr Alain Verloes</t>
   </si>
   <si>
@@ -304,9 +283,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-rennes-center/</t>
   </si>
   <si>
-    <t>D√ºsseldorf Center</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -319,9 +295,6 @@
     <t>Erlangen Center</t>
   </si>
   <si>
-    <t>Pr Dr Andr√© Reis</t>
-  </si>
-  <si>
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-erlangen-center/</t>
   </si>
   <si>
@@ -334,9 +307,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-essen-center/</t>
   </si>
   <si>
-    <t>G√∂ttingen Center</t>
-  </si>
-  <si>
     <t>Dr Bernd Wollnik</t>
   </si>
   <si>
@@ -352,9 +322,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-hamburg-center/</t>
   </si>
   <si>
-    <t>L√ºbeck Center</t>
-  </si>
-  <si>
     <t>Dr Irina Huening</t>
   </si>
   <si>
@@ -379,9 +346,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-munster-center/</t>
   </si>
   <si>
-    <t>T√ºbingen Center</t>
-  </si>
-  <si>
     <t>Dr Andreas Dufke</t>
   </si>
   <si>
@@ -400,9 +364,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-debrecen-center/</t>
   </si>
   <si>
-    <t>P√®cs Centre</t>
-  </si>
-  <si>
     <t>Kinga Hadzsiev</t>
   </si>
   <si>
@@ -469,9 +430,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-genoa-center/</t>
   </si>
   <si>
-    <t>Milan Center (Fondazione IRCCS Ca‚Äô Granda)</t>
-  </si>
-  <si>
     <t>Dr Maria Francesca Bedeschi</t>
   </si>
   <si>
@@ -559,9 +517,6 @@
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Dr Au≈°ra Matuleviƒçienƒó</t>
-  </si>
-  <si>
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-vilnius-center/</t>
   </si>
   <si>
@@ -742,9 +697,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-ljubijana-center/</t>
   </si>
   <si>
-    <t>Barcelona San Joan de D√©u Center</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -754,9 +706,6 @@
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-barcelona-san-joan-center/</t>
   </si>
   <si>
-    <t>Barcelona Val d‚ÄôHebron Center</t>
-  </si>
-  <si>
     <t>Dr Eduardo Tizzano Ferrari</t>
   </si>
   <si>
@@ -766,9 +715,6 @@
     <t>Madrid 12 de Octubre Center</t>
   </si>
   <si>
-    <t>Dr Noem√≠ Nu√±ez Enamorado</t>
-  </si>
-  <si>
     <t>https://ern-ithaca.eu/about-us/expert-centers/ern-ithaca-12-de-octubre-center/</t>
   </si>
   <si>
@@ -886,9 +832,6 @@
     <t>Zagreb</t>
   </si>
   <si>
-    <t>Acropoleos Medical Center</t>
-  </si>
-  <si>
     <t>Strovolos</t>
   </si>
   <si>
@@ -1297,9 +1240,6 @@
     <t>020atbp69</t>
   </si>
   <si>
-    <t>Centro Hospitalar e Universitário de Coimbra</t>
-  </si>
-  <si>
     <t>Centro Hospitalar Lisboa Norte</t>
   </si>
   <si>
@@ -1309,9 +1249,6 @@
     <t>020sr6z07</t>
   </si>
   <si>
-    <t xml:space="preserve">Spitalul Clinic de Urgenta pentru Copii Louis Turcanu Timisoara </t>
-  </si>
-  <si>
     <t>Timisoara</t>
   </si>
   <si>
@@ -1381,18 +1318,6 @@
     <t>05qec5a53</t>
   </si>
   <si>
-    <t>Dusseldorf Center</t>
-  </si>
-  <si>
-    <t>Paris Center (Robert Debre University Hospital)</t>
-  </si>
-  <si>
-    <t>Barcelona San Joan de Deu Center</t>
-  </si>
-  <si>
-    <t>Barcelona Val d'Hebron Center</t>
-  </si>
-  <si>
     <t>Düsseldorf University Hospital</t>
   </si>
   <si>
@@ -1414,9 +1339,6 @@
     <t>Universitätsmedizin Gottingen</t>
   </si>
   <si>
-    <t>Gottingen Center</t>
-  </si>
-  <si>
     <t>https://ror.org/021ft0n22</t>
   </si>
   <si>
@@ -1465,9 +1387,6 @@
     <t>02xf66n48</t>
   </si>
   <si>
-    <t>University of Pecs</t>
-  </si>
-  <si>
     <t>Pecs</t>
   </si>
   <si>
@@ -1586,13 +1505,166 @@
   </si>
   <si>
     <t>02s7et124</t>
+  </si>
+  <si>
+    <t>Lübeck Center</t>
+  </si>
+  <si>
+    <t>Düsseldorf Center</t>
+  </si>
+  <si>
+    <t>Paris Center (Robert Debré University Hospital)</t>
+  </si>
+  <si>
+    <t>Göttingen Center</t>
+  </si>
+  <si>
+    <t>Tübingen Center</t>
+  </si>
+  <si>
+    <t>Pècs Centre</t>
+  </si>
+  <si>
+    <t>Milan Center (Fondazione IRCCS Ca’ Granda)</t>
+  </si>
+  <si>
+    <t>Barcelona San Joan de Déu Center</t>
+  </si>
+  <si>
+    <t>Barcelona Val d’Hebron Center</t>
+  </si>
+  <si>
+    <t>University of Pècs</t>
+  </si>
+  <si>
+    <t>centerProjectUrl</t>
+  </si>
+  <si>
+    <t>centerRepresentative</t>
+  </si>
+  <si>
+    <t>centerType</t>
+  </si>
+  <si>
+    <t>Ljubljana University Medical Centre</t>
+  </si>
+  <si>
+    <t>https://ror.org/01nr6fy72</t>
+  </si>
+  <si>
+    <t>01nr6fy72</t>
+  </si>
+  <si>
+    <t>Hospital La Paz Institute for Health Research</t>
+  </si>
+  <si>
+    <t>https://ror.org/017bynh47</t>
+  </si>
+  <si>
+    <t>017bynh47</t>
+  </si>
+  <si>
+    <t>University of Turin</t>
+  </si>
+  <si>
+    <t>https://ror.org/048tbm396</t>
+  </si>
+  <si>
+    <t>048tbm396</t>
+  </si>
+  <si>
+    <t>University of Ferrara</t>
+  </si>
+  <si>
+    <t>https://ror.org/041zkgm14</t>
+  </si>
+  <si>
+    <t>041zkgm14</t>
+  </si>
+  <si>
+    <t>Ferrara</t>
+  </si>
+  <si>
+    <t>University Hospital Münster</t>
+  </si>
+  <si>
+    <t>https://ror.org/01856cw59</t>
+  </si>
+  <si>
+    <t>01856cw59</t>
+  </si>
+  <si>
+    <t>Dr Mette Møller Handrup</t>
+  </si>
+  <si>
+    <t>Pr Dr André Reis</t>
+  </si>
+  <si>
+    <t>Dr Aušra Matulevičienė</t>
+  </si>
+  <si>
+    <t>Dr Noemí Nuñez Enamorado</t>
+  </si>
+  <si>
+    <t>University Medical Center Hamburg-Eppendorf</t>
+  </si>
+  <si>
+    <t>https://ror.org/01zgy1s35</t>
+  </si>
+  <si>
+    <t>01zgy1s35</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Erlangen</t>
+  </si>
+  <si>
+    <t>https://ror.org/0030f2a11</t>
+  </si>
+  <si>
+    <t>0030f2a11</t>
+  </si>
+  <si>
+    <t>https://ror.org/03a07kg34</t>
+  </si>
+  <si>
+    <t>03a07kg34</t>
+  </si>
+  <si>
+    <t>https://ror.org/04z8k9a98</t>
+  </si>
+  <si>
+    <t>04z8k9a98</t>
+  </si>
+  <si>
+    <t>University of Coimbra</t>
+  </si>
+  <si>
+    <t>Victor Babeș University of Medicine and Pharmacy Timișoara</t>
+  </si>
+  <si>
+    <t>https://ror.org/00afdp487</t>
+  </si>
+  <si>
+    <t>00afdp487</t>
+  </si>
+  <si>
+    <t>Cyprus Institute of Neurology and Genetics</t>
+  </si>
+  <si>
+    <t>https://ror.org/01ggsp920</t>
+  </si>
+  <si>
+    <t>01ggsp920</t>
+  </si>
+  <si>
+    <t>officialName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1726,20 +1798,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2039,7 +2097,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2082,16 +2140,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2125,7 +2180,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2445,86 +2499,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="100.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
       <c r="F2">
         <v>47.262659999999997</v>
@@ -2532,40 +2584,40 @@
       <c r="G2">
         <v>11.394539999999999</v>
       </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
       <c r="I2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K2" t="s">
-        <v>264</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>51.220469999999999</v>
@@ -2573,40 +2625,40 @@
       <c r="G3">
         <v>4.4002600000000003</v>
       </c>
+      <c r="H3" t="s">
+        <v>250</v>
+      </c>
       <c r="I3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>267</v>
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>50.813611000000002</v>
@@ -2614,40 +2666,40 @@
       <c r="G4">
         <v>4.2661110000000004</v>
       </c>
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
       <c r="I4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>270</v>
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>51.05</v>
@@ -2655,40 +2707,40 @@
       <c r="G5">
         <v>3.7166700000000001</v>
       </c>
+      <c r="H5" t="s">
+        <v>256</v>
+      </c>
       <c r="I5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>276</v>
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>50.852055999999997</v>
@@ -2696,40 +2748,40 @@
       <c r="G6">
         <v>4.4523609999999998</v>
       </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
       <c r="I6" t="s">
-        <v>272</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>278</v>
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>50.880400000000002</v>
@@ -2737,40 +2789,40 @@
       <c r="G7">
         <v>4.6955</v>
       </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
       <c r="I7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>281</v>
+      <c r="L7" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="M7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>45.809669999999997</v>
@@ -2778,40 +2830,40 @@
       <c r="G8">
         <v>15.964722999999999</v>
       </c>
+      <c r="H8" t="s">
+        <v>269</v>
+      </c>
       <c r="I8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>285</v>
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>35.145254199999997</v>
@@ -2819,31 +2871,40 @@
       <c r="G9">
         <v>33.360887599999998</v>
       </c>
+      <c r="H9" t="s">
+        <v>270</v>
+      </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>50.072868999999997</v>
@@ -2851,40 +2912,40 @@
       <c r="G10">
         <v>14.340355000000001</v>
       </c>
+      <c r="H10" t="s">
+        <v>272</v>
+      </c>
       <c r="I10" t="s">
-        <v>291</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K10" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>292</v>
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>524</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>56.170313</v>
@@ -2892,40 +2953,40 @@
       <c r="G11">
         <v>10.206476</v>
       </c>
+      <c r="H11" t="s">
+        <v>277</v>
+      </c>
       <c r="I11" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>294</v>
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>55.675939999999997</v>
@@ -2933,40 +2994,40 @@
       <c r="G12">
         <v>12.565530000000001</v>
       </c>
+      <c r="H12" t="s">
+        <v>282</v>
+      </c>
       <c r="I12" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>299</v>
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>55.368611000000001</v>
@@ -2974,40 +3035,40 @@
       <c r="G13">
         <v>10.428056</v>
       </c>
+      <c r="H13" t="s">
+        <v>331</v>
+      </c>
       <c r="I13" t="s">
-        <v>350</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="K13" t="s">
-        <v>264</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>352</v>
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>58.367592000000002</v>
@@ -3015,40 +3076,40 @@
       <c r="G14">
         <v>26.703916</v>
       </c>
+      <c r="H14" t="s">
+        <v>330</v>
+      </c>
       <c r="I14" t="s">
-        <v>349</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K14" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>355</v>
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="M14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>60.188611000000002</v>
@@ -3056,40 +3117,40 @@
       <c r="G15">
         <v>24.905277999999999</v>
       </c>
+      <c r="H15" t="s">
+        <v>329</v>
+      </c>
       <c r="I15" t="s">
-        <v>348</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K15" t="s">
-        <v>264</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>358</v>
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>65.012360000000001</v>
@@ -3097,40 +3158,40 @@
       <c r="G16">
         <v>25.468160000000001</v>
       </c>
+      <c r="H16" t="s">
+        <v>328</v>
+      </c>
       <c r="I16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K16" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>361</v>
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>44.840440000000001</v>
@@ -3138,40 +3199,40 @@
       <c r="G17">
         <v>-0.58050000000000002</v>
       </c>
+      <c r="H17" t="s">
+        <v>345</v>
+      </c>
       <c r="I17" t="s">
-        <v>364</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="K17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>365</v>
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>47.316670000000002</v>
@@ -3179,40 +3240,40 @@
       <c r="G18">
         <v>5.0166700000000004</v>
       </c>
+      <c r="H18" t="s">
+        <v>327</v>
+      </c>
       <c r="I18" t="s">
-        <v>346</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K18" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>368</v>
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>246</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>50.606202000000003</v>
@@ -3220,40 +3281,40 @@
       <c r="G19">
         <v>3.032699</v>
       </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
       <c r="I19" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" t="s">
-        <v>264</v>
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>246</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="L19" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>45.746307000000002</v>
@@ -3261,40 +3322,40 @@
       <c r="G20">
         <v>4.9008089999999997</v>
       </c>
+      <c r="H20" t="s">
+        <v>325</v>
+      </c>
       <c r="I20" t="s">
-        <v>344</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="K20" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>374</v>
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>43.290123999999999</v>
@@ -3302,40 +3363,40 @@
       <c r="G21">
         <v>5.4040229999999996</v>
       </c>
+      <c r="H21" t="s">
+        <v>324</v>
+      </c>
       <c r="I21" t="s">
-        <v>343</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="K21" t="s">
-        <v>264</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>377</v>
+        <v>64</v>
+      </c>
+      <c r="J21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>43.629330000000003</v>
@@ -3343,40 +3404,40 @@
       <c r="G22">
         <v>3.8661669999999999</v>
       </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
       <c r="I22" t="s">
-        <v>342</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K22" t="s">
-        <v>264</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>380</v>
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>48.853409999999997</v>
@@ -3384,40 +3445,40 @@
       <c r="G23">
         <v>2.3488000000000002</v>
       </c>
+      <c r="H23" t="s">
+        <v>322</v>
+      </c>
       <c r="I23" t="s">
-        <v>341</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K23" t="s">
-        <v>264</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>447</v>
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>48.111980000000003</v>
@@ -3425,40 +3486,40 @@
       <c r="G24">
         <v>-1.6742900000000001</v>
       </c>
+      <c r="H24" t="s">
+        <v>429</v>
+      </c>
       <c r="I24" t="s">
-        <v>450</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K24" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>451</v>
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>496</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>51.198799999999999</v>
@@ -3466,63 +3527,81 @@
       <c r="G25">
         <v>6.7892999999999999</v>
       </c>
+      <c r="H25" t="s">
+        <v>321</v>
+      </c>
       <c r="I25" t="s">
-        <v>340</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K25" t="s">
-        <v>264</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>458</v>
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>531</v>
+      </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>525</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>49.590989999999998</v>
+      </c>
+      <c r="G26">
+        <v>11.00783</v>
+      </c>
+      <c r="H26" t="s">
+        <v>320</v>
       </c>
       <c r="I26" t="s">
-        <v>339</v>
+        <v>87</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>51.456569999999999</v>
@@ -3530,40 +3609,40 @@
       <c r="G27">
         <v>7.0122799999999996</v>
       </c>
+      <c r="H27" t="s">
+        <v>319</v>
+      </c>
       <c r="I27" t="s">
-        <v>338</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="K27" t="s">
-        <v>264</v>
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="C28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>51.53443</v>
@@ -3571,63 +3650,81 @@
       <c r="G28">
         <v>9.9322800000000004</v>
       </c>
+      <c r="H28" t="s">
+        <v>440</v>
+      </c>
       <c r="I28" t="s">
-        <v>466</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K28" t="s">
-        <v>264</v>
+        <v>87</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
-      </c>
-      <c r="N28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>528</v>
+      </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>53.550730000000001</v>
+      </c>
+      <c r="G29">
+        <v>9.9930199999999996</v>
+      </c>
+      <c r="H29" t="s">
+        <v>318</v>
       </c>
       <c r="I29" t="s">
-        <v>337</v>
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
-      </c>
-      <c r="N29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>54.331567</v>
@@ -3635,40 +3732,40 @@
       <c r="G30">
         <v>10.14235</v>
       </c>
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
       <c r="I30" t="s">
-        <v>336</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K30" t="s">
-        <v>264</v>
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>52.100971999999999</v>
@@ -3676,63 +3773,81 @@
       <c r="G31">
         <v>11.617556</v>
       </c>
+      <c r="H31" t="s">
+        <v>316</v>
+      </c>
       <c r="I31" t="s">
-        <v>335</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K31" t="s">
-        <v>264</v>
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>521</v>
+      </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>51.960835000000003</v>
+      </c>
+      <c r="G32">
+        <v>7.5962769999999997</v>
+      </c>
+      <c r="H32" t="s">
+        <v>315</v>
       </c>
       <c r="I32" t="s">
-        <v>334</v>
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="M32" t="s">
-        <v>116</v>
-      </c>
-      <c r="N32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>48.524999999999999</v>
@@ -3740,657 +3855,696 @@
       <c r="G33">
         <v>9.0589999999999993</v>
       </c>
+      <c r="H33" t="s">
+        <v>314</v>
+      </c>
       <c r="I33" t="s">
-        <v>333</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K33" t="s">
-        <v>264</v>
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="3">
+        <v>17</v>
+      </c>
+      <c r="F34">
         <v>47.531669999999998</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>21.62444</v>
       </c>
+      <c r="H34" t="s">
+        <v>452</v>
+      </c>
       <c r="I34" t="s">
-        <v>478</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="K34" t="s">
-        <v>264</v>
+        <v>111</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>500</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="3">
+        <v>17</v>
+      </c>
+      <c r="F35">
         <v>46.072499999999998</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>18.230830000000001</v>
       </c>
+      <c r="H35" t="s">
+        <v>455</v>
+      </c>
       <c r="I35" t="s">
-        <v>482</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K35" t="s">
-        <v>264</v>
+        <v>111</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
-      </c>
-      <c r="N35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="3">
+        <v>17</v>
+      </c>
+      <c r="F36">
         <v>53.359273999999999</v>
       </c>
       <c r="G36">
         <v>-6.2689560000000002</v>
       </c>
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
       <c r="I36" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>44.492527000000003</v>
+      </c>
+      <c r="G37">
+        <v>11.362128</v>
+      </c>
+      <c r="H37" t="s">
+        <v>312</v>
+      </c>
+      <c r="I37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>44.833658999999997</v>
+      </c>
+      <c r="G38">
+        <v>11.626141000000001</v>
+      </c>
+      <c r="H38" t="s">
+        <v>520</v>
+      </c>
+      <c r="I38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>464</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>43.810527</v>
+      </c>
+      <c r="G39">
+        <v>11.252438</v>
+      </c>
+      <c r="H39" t="s">
+        <v>311</v>
+      </c>
+      <c r="I39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>45.477186000000003</v>
+      </c>
+      <c r="G40">
+        <v>9.2303850000000001</v>
+      </c>
+      <c r="H40" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>470</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>44.392842999999999</v>
+      </c>
+      <c r="G41">
+        <v>8.9880069999999996</v>
+      </c>
+      <c r="H41" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C42" t="s">
+        <v>501</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>45.464269999999999</v>
+      </c>
+      <c r="G42">
+        <v>9.1895100000000003</v>
+      </c>
+      <c r="H42" t="s">
+        <v>309</v>
+      </c>
+      <c r="I42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>476</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>40.866500000000002</v>
+      </c>
+      <c r="G43">
+        <v>14.220750000000001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" t="s">
+        <v>246</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>45.404313999999999</v>
+      </c>
+      <c r="G44">
+        <v>11.887473999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" t="s">
+        <v>246</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>44.686819</v>
+      </c>
+      <c r="G45">
+        <v>10.666740000000001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>483</v>
+      </c>
+      <c r="I45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>41.929752000000001</v>
+      </c>
+      <c r="G46">
+        <v>12.429125000000001</v>
+      </c>
+      <c r="H46" t="s">
+        <v>306</v>
+      </c>
+      <c r="I46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" t="s">
+        <v>246</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K36" t="s">
-        <v>264</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M36" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>488</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44.492527000000003</v>
-      </c>
-      <c r="G37" s="3">
-        <v>11.362128</v>
-      </c>
-      <c r="I37" t="s">
-        <v>331</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="M46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>489</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>41.897466000000001</v>
+      </c>
+      <c r="G47">
+        <v>12.461168000000001</v>
+      </c>
+      <c r="H47" t="s">
+        <v>306</v>
+      </c>
+      <c r="I47" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" t="s">
+        <v>246</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K37" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M37" t="s">
-        <v>133</v>
-      </c>
-      <c r="N37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" t="s">
-        <v>137</v>
-      </c>
-      <c r="N38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>491</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="3">
-        <v>43.810527</v>
-      </c>
-      <c r="G39" s="3">
-        <v>11.252438</v>
-      </c>
-      <c r="I39" t="s">
-        <v>330</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="M47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>492</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>43.343361000000002</v>
+      </c>
+      <c r="G48">
+        <v>11.327361</v>
+      </c>
+      <c r="H48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K39" t="s">
-        <v>264</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="M39" t="s">
-        <v>140</v>
-      </c>
-      <c r="N39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>494</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="3">
-        <v>45.477186000000003</v>
-      </c>
-      <c r="G40" s="3">
-        <v>9.2303850000000001</v>
-      </c>
-      <c r="I40" t="s">
-        <v>328</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K40" t="s">
-        <v>264</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M40" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>497</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44.392842999999999</v>
-      </c>
-      <c r="G41" s="3">
-        <v>8.9880069999999996</v>
-      </c>
-      <c r="I41" t="s">
-        <v>329</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K41" t="s">
-        <v>264</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="M41" t="s">
-        <v>146</v>
-      </c>
-      <c r="N41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>500</v>
-      </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="3">
-        <v>45.464269999999999</v>
-      </c>
-      <c r="G42" s="3">
-        <v>9.1895100000000003</v>
-      </c>
-      <c r="I42" t="s">
-        <v>328</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="K42" t="s">
-        <v>264</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="M42" t="s">
-        <v>149</v>
-      </c>
-      <c r="N42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>503</v>
-      </c>
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="3">
-        <v>40.866500000000002</v>
-      </c>
-      <c r="G43" s="3">
-        <v>14.220750000000001</v>
-      </c>
-      <c r="I43" t="s">
-        <v>327</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="K43" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="M43" t="s">
-        <v>152</v>
-      </c>
-      <c r="N43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="M48" t="s">
         <v>155</v>
       </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>514</v>
+      </c>
+      <c r="B49" t="s">
         <v>156</v>
       </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="3">
-        <v>45.404313999999999</v>
-      </c>
-      <c r="G44" s="3">
-        <v>11.887473999999999</v>
-      </c>
-      <c r="I44" t="s">
-        <v>326</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="K44" t="s">
-        <v>264</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="M44" t="s">
-        <v>155</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>509</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>45.070489999999999</v>
+      </c>
+      <c r="G49">
+        <v>7.68682</v>
+      </c>
+      <c r="H49" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="M49" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" t="s">
         <v>159</v>
       </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44.686819</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10.666740000000001</v>
-      </c>
-      <c r="I45" t="s">
-        <v>510</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="K45" t="s">
-        <v>264</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="M45" t="s">
-        <v>158</v>
-      </c>
-      <c r="N45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>513</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
         <v>161</v>
       </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="3">
-        <v>41.929752000000001</v>
-      </c>
-      <c r="G46" s="3">
-        <v>12.429125000000001</v>
-      </c>
-      <c r="I46" t="s">
-        <v>325</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K46" t="s">
-        <v>264</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M46" t="s">
-        <v>161</v>
-      </c>
-      <c r="N46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>516</v>
-      </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="3">
-        <v>41.897466000000001</v>
-      </c>
-      <c r="G47" s="3">
-        <v>12.461168000000001</v>
-      </c>
-      <c r="I47" t="s">
-        <v>325</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K47" t="s">
-        <v>264</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M47" t="s">
-        <v>164</v>
-      </c>
-      <c r="N47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>519</v>
-      </c>
-      <c r="B48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="3">
-        <v>43.343361000000002</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11.327361</v>
-      </c>
-      <c r="I48" t="s">
-        <v>324</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="K48" t="s">
-        <v>264</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M48" t="s">
-        <v>167</v>
-      </c>
-      <c r="N48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" t="s">
-        <v>323</v>
-      </c>
-      <c r="M49" t="s">
-        <v>170</v>
-      </c>
-      <c r="N49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>56.921971999999997</v>
@@ -4398,40 +4552,40 @@
       <c r="G50">
         <v>24.088044</v>
       </c>
+      <c r="H50" t="s">
+        <v>303</v>
+      </c>
       <c r="I50" t="s">
-        <v>322</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K50" t="s">
-        <v>264</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>401</v>
+        <v>160</v>
+      </c>
+      <c r="J50" t="s">
+        <v>246</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="M50" t="s">
-        <v>173</v>
-      </c>
-      <c r="N50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>526</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>54.752070000000003</v>
@@ -4439,37 +4593,37 @@
       <c r="G51">
         <v>25.277787</v>
       </c>
+      <c r="H51" t="s">
+        <v>387</v>
+      </c>
       <c r="I51" t="s">
-        <v>406</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K51" t="s">
-        <v>264</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>404</v>
+        <v>164</v>
+      </c>
+      <c r="J51" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="M51" t="s">
-        <v>177</v>
-      </c>
-      <c r="N51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F52">
         <v>49.619019999999999</v>
@@ -4477,37 +4631,37 @@
       <c r="G52">
         <v>6.1007910000000001</v>
       </c>
+      <c r="H52" t="s">
+        <v>389</v>
+      </c>
       <c r="I52" t="s">
-        <v>408</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K52" t="s">
-        <v>264</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>409</v>
+        <v>167</v>
+      </c>
+      <c r="J52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="M52" t="s">
-        <v>181</v>
-      </c>
-      <c r="N52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F53">
         <v>35.901828000000002</v>
@@ -4515,40 +4669,40 @@
       <c r="G53">
         <v>14.476744</v>
       </c>
+      <c r="H53" t="s">
+        <v>393</v>
+      </c>
       <c r="I53" t="s">
-        <v>412</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K53" t="s">
-        <v>264</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>413</v>
+        <v>171</v>
+      </c>
+      <c r="J53" t="s">
+        <v>246</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="M53" t="s">
-        <v>185</v>
-      </c>
-      <c r="N53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>52.374029999999998</v>
@@ -4556,40 +4710,40 @@
       <c r="G54">
         <v>4.8896899999999999</v>
       </c>
+      <c r="H54" t="s">
+        <v>287</v>
+      </c>
       <c r="I54" t="s">
-        <v>306</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K54" t="s">
-        <v>264</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>398</v>
+        <v>174</v>
+      </c>
+      <c r="J54" t="s">
+        <v>246</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
-      </c>
-      <c r="N54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>53.219442999999998</v>
@@ -4597,40 +4751,40 @@
       <c r="G55">
         <v>6.5629660000000003</v>
       </c>
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
       <c r="I55" t="s">
-        <v>305</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K55" t="s">
-        <v>264</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>304</v>
+        <v>174</v>
+      </c>
+      <c r="J55" t="s">
+        <v>246</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="M55" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>52.158329999999999</v>
@@ -4638,40 +4792,40 @@
       <c r="G56">
         <v>4.4930599999999998</v>
       </c>
+      <c r="H56" t="s">
+        <v>288</v>
+      </c>
       <c r="I56" t="s">
-        <v>307</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K56" t="s">
-        <v>264</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>386</v>
+        <v>174</v>
+      </c>
+      <c r="J56" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="M56" t="s">
-        <v>195</v>
-      </c>
-      <c r="N56" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F57">
         <v>50.848329999999997</v>
@@ -4679,40 +4833,40 @@
       <c r="G57">
         <v>5.6888899999999998</v>
       </c>
+      <c r="H57" t="s">
+        <v>289</v>
+      </c>
       <c r="I57" t="s">
-        <v>308</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K57" t="s">
-        <v>264</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>389</v>
+        <v>174</v>
+      </c>
+      <c r="J57" t="s">
+        <v>246</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="M57" t="s">
-        <v>198</v>
-      </c>
-      <c r="N57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <v>51.842500000000001</v>
@@ -4720,40 +4874,40 @@
       <c r="G58">
         <v>5.8527800000000001</v>
       </c>
+      <c r="H58" t="s">
+        <v>290</v>
+      </c>
       <c r="I58" t="s">
-        <v>309</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K58" t="s">
-        <v>264</v>
+        <v>174</v>
+      </c>
+      <c r="J58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="L58" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s">
-        <v>201</v>
-      </c>
-      <c r="N58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
         <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>51.922499999999999</v>
@@ -4761,40 +4915,40 @@
       <c r="G59">
         <v>4.4791699999999999</v>
       </c>
+      <c r="H59" t="s">
+        <v>291</v>
+      </c>
       <c r="I59" t="s">
-        <v>310</v>
-      </c>
-      <c r="J59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" t="s">
+        <v>246</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>396</v>
       </c>
-      <c r="K59" t="s">
-        <v>264</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M59" t="s">
-        <v>204</v>
-      </c>
-      <c r="N59" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>415</v>
-      </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>60.392989999999998</v>
@@ -4802,40 +4956,40 @@
       <c r="G60">
         <v>5.3241500000000004</v>
       </c>
+      <c r="H60" t="s">
+        <v>292</v>
+      </c>
       <c r="I60" t="s">
-        <v>311</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K60" t="s">
-        <v>264</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>416</v>
+        <v>193</v>
+      </c>
+      <c r="J60" t="s">
+        <v>246</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
-      </c>
-      <c r="N60" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>54.352269999999997</v>
@@ -4843,40 +4997,40 @@
       <c r="G61">
         <v>18.64912</v>
       </c>
+      <c r="H61" t="s">
+        <v>293</v>
+      </c>
       <c r="I61" t="s">
-        <v>312</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K61" t="s">
-        <v>264</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>419</v>
+        <v>197</v>
+      </c>
+      <c r="J61" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="M61" t="s">
-        <v>211</v>
-      </c>
-      <c r="N61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F62">
         <v>53.7760107</v>
@@ -4884,31 +5038,40 @@
       <c r="G62">
         <v>20.465698799999998</v>
       </c>
+      <c r="H62" t="s">
+        <v>294</v>
+      </c>
       <c r="I62" t="s">
-        <v>313</v>
+        <v>197</v>
+      </c>
+      <c r="J62" t="s">
+        <v>246</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="M62" t="s">
-        <v>215</v>
-      </c>
-      <c r="N62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>52.207076999999998</v>
@@ -4916,72 +5079,81 @@
       <c r="G63">
         <v>21.191828000000001</v>
       </c>
+      <c r="H63" t="s">
+        <v>295</v>
+      </c>
       <c r="I63" t="s">
-        <v>314</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="K63" t="s">
-        <v>264</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>423</v>
+        <v>197</v>
+      </c>
+      <c r="J63" t="s">
+        <v>246</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="M63" t="s">
-        <v>218</v>
-      </c>
-      <c r="N63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>40.220849899999997</v>
+        <v>40.205640000000002</v>
       </c>
       <c r="G64">
-        <v>-8.4478942000000004</v>
+        <v>-8.4195499999999992</v>
+      </c>
+      <c r="H64" t="s">
+        <v>296</v>
       </c>
       <c r="I64" t="s">
-        <v>315</v>
+        <v>207</v>
+      </c>
+      <c r="J64" t="s">
+        <v>246</v>
+      </c>
+      <c r="K64" t="s">
+        <v>537</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="M64" t="s">
-        <v>221</v>
-      </c>
-      <c r="N64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>38.748446000000001</v>
@@ -4989,72 +5161,81 @@
       <c r="G65">
         <v>-9.1606089999999991</v>
       </c>
+      <c r="H65" t="s">
+        <v>297</v>
+      </c>
       <c r="I65" t="s">
-        <v>316</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K65" t="s">
-        <v>264</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>427</v>
+        <v>207</v>
+      </c>
+      <c r="J65" t="s">
+        <v>246</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="M65" t="s">
-        <v>225</v>
-      </c>
-      <c r="N65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F66">
-        <v>45.753754200000003</v>
+        <v>45.757446999999999</v>
       </c>
       <c r="G66">
-        <v>21.221789600000001</v>
+        <v>21.236867</v>
+      </c>
+      <c r="H66" t="s">
+        <v>409</v>
       </c>
       <c r="I66" t="s">
-        <v>430</v>
+        <v>214</v>
+      </c>
+      <c r="J66" t="s">
+        <v>246</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="M66" t="s">
-        <v>228</v>
-      </c>
-      <c r="N66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F67">
         <v>48.169966000000002</v>
@@ -5062,66 +5243,81 @@
       <c r="G67">
         <v>17.087505</v>
       </c>
+      <c r="H67" t="s">
+        <v>298</v>
+      </c>
       <c r="I67" t="s">
-        <v>317</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="K67" t="s">
-        <v>264</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>432</v>
+        <v>218</v>
+      </c>
+      <c r="J67" t="s">
+        <v>246</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="M67" t="s">
-        <v>232</v>
-      </c>
-      <c r="N67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>508</v>
+      </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="F68">
+        <v>46.053688999999999</v>
+      </c>
+      <c r="G68">
+        <v>14.521233000000001</v>
+      </c>
+      <c r="H68" t="s">
+        <v>299</v>
       </c>
       <c r="I68" t="s">
-        <v>318</v>
-      </c>
-      <c r="K68" t="s">
-        <v>264</v>
+        <v>222</v>
+      </c>
+      <c r="J68" t="s">
+        <v>246</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="M68" t="s">
-        <v>236</v>
-      </c>
-      <c r="N68" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>41.384239999999998</v>
@@ -5129,40 +5325,40 @@
       <c r="G69">
         <v>2.102141</v>
       </c>
+      <c r="H69" t="s">
+        <v>300</v>
+      </c>
       <c r="I69" t="s">
-        <v>319</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K69" t="s">
-        <v>264</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>435</v>
+        <v>225</v>
+      </c>
+      <c r="J69" t="s">
+        <v>246</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="M69" t="s">
-        <v>240</v>
-      </c>
-      <c r="N69" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F70">
         <v>41.428083000000001</v>
@@ -5170,40 +5366,40 @@
       <c r="G70">
         <v>2.1422780000000001</v>
       </c>
+      <c r="H70" t="s">
+        <v>300</v>
+      </c>
       <c r="I70" t="s">
-        <v>319</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="K70" t="s">
-        <v>264</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>438</v>
+        <v>225</v>
+      </c>
+      <c r="J70" t="s">
+        <v>246</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="M70" t="s">
-        <v>244</v>
-      </c>
-      <c r="N70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>527</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>40.377420999999998</v>
@@ -5211,40 +5407,40 @@
       <c r="G71">
         <v>-3.6992620000000001</v>
       </c>
+      <c r="H71" t="s">
+        <v>301</v>
+      </c>
       <c r="I71" t="s">
-        <v>320</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K71" t="s">
-        <v>264</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>442</v>
+        <v>225</v>
+      </c>
+      <c r="J71" t="s">
+        <v>246</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="M71" t="s">
-        <v>247</v>
-      </c>
-      <c r="N71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>40.419187000000001</v>
@@ -5252,66 +5448,81 @@
       <c r="G72">
         <v>-3.6704300000000001</v>
       </c>
+      <c r="H72" t="s">
+        <v>301</v>
+      </c>
       <c r="I72" t="s">
-        <v>320</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K72" t="s">
-        <v>264</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>445</v>
+        <v>225</v>
+      </c>
+      <c r="J72" t="s">
+        <v>246</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="M72" t="s">
-        <v>250</v>
-      </c>
-      <c r="N72" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>511</v>
+      </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>40.483525999999998</v>
+      </c>
+      <c r="G73">
+        <v>-3.6884709999999998</v>
+      </c>
+      <c r="H73" t="s">
+        <v>301</v>
       </c>
       <c r="I73" t="s">
-        <v>320</v>
-      </c>
-      <c r="K73" t="s">
-        <v>264</v>
+        <v>225</v>
+      </c>
+      <c r="J73" t="s">
+        <v>246</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="M73" t="s">
-        <v>253</v>
-      </c>
-      <c r="N73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F74">
         <v>59.352221999999998</v>
@@ -5319,50 +5530,29 @@
       <c r="G74">
         <v>18.032222000000001</v>
       </c>
+      <c r="H74" t="s">
+        <v>302</v>
+      </c>
       <c r="I74" t="s">
-        <v>321</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K74" t="s">
-        <v>264</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>383</v>
+        <v>239</v>
+      </c>
+      <c r="J74" t="s">
+        <v>246</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="M74" t="s">
-        <v>256</v>
-      </c>
-      <c r="N74" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L27" r:id="rId1"/>
-    <hyperlink ref="L28" r:id="rId2"/>
-    <hyperlink ref="L30" r:id="rId3"/>
-    <hyperlink ref="L31" r:id="rId4"/>
-    <hyperlink ref="L33" r:id="rId5"/>
-    <hyperlink ref="L34" r:id="rId6"/>
-    <hyperlink ref="L35" r:id="rId7"/>
-    <hyperlink ref="L36" r:id="rId8"/>
-    <hyperlink ref="L37" r:id="rId9"/>
-    <hyperlink ref="L39" r:id="rId10"/>
-    <hyperlink ref="L40" r:id="rId11"/>
-    <hyperlink ref="L41" r:id="rId12"/>
-    <hyperlink ref="L42" r:id="rId13"/>
-    <hyperlink ref="L43" r:id="rId14"/>
-    <hyperlink ref="L44" r:id="rId15"/>
-    <hyperlink ref="L45" r:id="rId16"/>
-    <hyperlink ref="L46" r:id="rId17"/>
-    <hyperlink ref="L47" r:id="rId18"/>
-    <hyperlink ref="L48" r:id="rId19"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="J59" numberStoredAsText="1"/>
+    <ignoredError sqref="K59" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>